--- a/public/template/店铺人员调动.xlsx
+++ b/public/template/店铺人员调动.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\OAsystem\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpStudy\WWW\OA\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,12 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="导入表" sheetId="1" r:id="rId1"/>
-    <sheet name="店铺" sheetId="15" r:id="rId2"/>
-    <sheet name="使用说明" sheetId="16" r:id="rId3"/>
+    <sheet name="标签" sheetId="17" state="hidden" r:id="rId2"/>
+    <sheet name="店铺" sheetId="15" r:id="rId3"/>
+    <sheet name="使用说明" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">店铺!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">店铺!$A$1:$B$623</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">店铺!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">店铺!$A$1:$B$623</definedName>
     <definedName name="GO">#REF!</definedName>
     <definedName name="GO加盟">#REF!</definedName>
     <definedName name="GO快销">#REF!</definedName>
@@ -429,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1267">
   <si>
     <t>表格中可以使用公式，需先将单元格类型设置为常规，并且不能破坏数据验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4327,6 +4328,25 @@
   <si>
     <t>到店职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假结束</t>
+  </si>
+  <si>
+    <t>新人入职</t>
+  </si>
+  <si>
+    <t>新店开业</t>
+  </si>
+  <si>
+    <t>成都出发</t>
+  </si>
+  <si>
+    <t>濮院出发</t>
   </si>
 </sst>
 </file>
@@ -4548,7 +4568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4598,6 +4618,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4933,7 +4954,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4947,12 +4968,12 @@
     <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
     <col min="3" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="80.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="7" width="21.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="80.85546875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4972,6 +4993,9 @@
         <v>1254</v>
       </c>
       <c r="G1" s="18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -4993,10 +5017,64 @@
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="17" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>标签!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B623"/>
   <sheetViews>
@@ -10006,7 +10084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:F16"/>
   <sheetViews>

--- a/public/template/店铺人员调动.xlsx
+++ b/public/template/店铺人员调动.xlsx
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1267">
   <si>
     <t>表格中可以使用公式，需先将单元格类型设置为常规，并且不能破坏数据验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4612,13 +4612,13 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4954,7 +4954,7 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4968,12 +4968,12 @@
     <col min="1" max="1" width="11.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="4" customWidth="1"/>
     <col min="3" max="5" width="19" style="4" customWidth="1"/>
-    <col min="6" max="7" width="21.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="80.85546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="8" width="21.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="80.85546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4996,6 +4996,9 @@
         <v>1261</v>
       </c>
       <c r="H1" s="18" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>1257</v>
       </c>
     </row>
@@ -5024,7 +5027,7 @@
           <x14:formula1>
             <xm:f>标签!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G2:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5043,27 +5046,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>1262</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -10102,10 +10105,10 @@
   <sheetData>
     <row r="2" spans="5:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="5:6" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>1259</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="5:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="13">

--- a/public/template/店铺人员调动.xlsx
+++ b/public/template/店铺人员调动.xlsx
@@ -430,7 +430,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="1268">
   <si>
     <t>表格中可以使用公式，需先将单元格类型设置为常规，并且不能破坏数据验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4347,6 +4347,10 @@
   </si>
   <si>
     <t>濮院出发</t>
+  </si>
+  <si>
+    <t>店铺结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5037,11 +5041,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5062,11 +5064,16 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>1266</v>
       </c>
     </row>
@@ -5081,9 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B623"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
